--- a/network_bandwidth_calucation.xlsx
+++ b/network_bandwidth_calucation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\jitsi upwork\jitsi-research-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F21FEF-1BF2-40CE-949C-871C98A7089F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFA3A28-5F0C-4915-AE9C-765C31EC53D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B25089BA-570A-49BA-BC95-088FF7E025CE}"/>
   </bookViews>
@@ -162,11 +162,11 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +188,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,32 +242,32 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -615,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD2E4BC-BD86-46A4-97C7-9247BBF76A05}">
   <dimension ref="A2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,7 +676,7 @@
       <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -728,26 +722,26 @@
         <v>0.15264767999999998</v>
       </c>
       <c r="K3" s="9">
-        <f>$C$15/A3</f>
+        <f t="shared" ref="K3:K13" si="0">$C$15/A3</f>
         <v>10000</v>
       </c>
       <c r="L3" s="2">
         <f>K3*J3</f>
         <v>1526.4767999999999</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="14">
         <f>L3/$C$19</f>
         <v>15.264767999999998</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="15">
         <f>M3*$C$20</f>
         <v>50644.836679679996</v>
       </c>
       <c r="O3" s="9">
-        <f>L3/$C$24</f>
+        <f t="shared" ref="O3:O13" si="1">L3/$C$24</f>
         <v>122.11814399999999</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="17">
         <f>O3*$C$25</f>
         <v>45017.632604159997</v>
       </c>
@@ -760,59 +754,59 @@
         <v>1.2</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C13" si="0">1920*1080*30*0.08/1000000</f>
+        <f t="shared" ref="C4:C13" si="2">1920*1080*30*0.08/1000000</f>
         <v>4.9766399999999997</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D13" si="1">640*360*30*0.08/1000000</f>
+        <f t="shared" ref="D4:D13" si="3">640*360*30*0.08/1000000</f>
         <v>0.55296000000000001</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E13" si="2">320*180*30*0.08/1000000</f>
+        <f t="shared" ref="E4:E13" si="4">320*180*30*0.08/1000000</f>
         <v>0.13824</v>
       </c>
       <c r="F4" s="4">
-        <v>1.0640000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G13" si="3">(((E4+F4)+(D4+F4)+(C4+F4))*B4)*A4</f>
-        <v>116.94988799999999</v>
+        <f t="shared" ref="G4:G13" si="5">(((E4+F4)+(D4+F4)+(C4+F4))*B4)*A4</f>
+        <v>77.349887999999993</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H13" si="4">((C4+F4)+(E4+F4)*(A4-1))*A4*B4</f>
-        <v>238.43212800000001</v>
+        <f t="shared" ref="H4:H13" si="6">((C4+F4)+(E4+F4)*(A4-1))*A4*B4</f>
+        <v>93.232127999999989</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I13" si="5">H4+G4</f>
-        <v>355.38201600000002</v>
+        <f t="shared" ref="I4:I13" si="7">H4+G4</f>
+        <v>170.58201599999998</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J13" si="6">I4/1000</f>
-        <v>0.35538201600000002</v>
+        <f t="shared" ref="J4:J13" si="8">I4/1000</f>
+        <v>0.17058201599999998</v>
       </c>
       <c r="K4" s="9">
-        <f>$C$15/A4</f>
+        <f t="shared" si="0"/>
         <v>9090.9090909090901</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L13" si="7">K4*J4</f>
-        <v>3230.7455999999997</v>
-      </c>
-      <c r="M4" s="19">
-        <f t="shared" ref="M4:M13" si="8">L4/$C$19</f>
-        <v>32.307455999999995</v>
-      </c>
-      <c r="N4" s="20">
-        <f t="shared" ref="N4:N13" si="9">M4*$C$20</f>
-        <v>107188.38521856</v>
+        <f t="shared" ref="L4:L12" si="9">K4*J4</f>
+        <v>1550.7455999999997</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" ref="M4:M13" si="10">L4/$C$19</f>
+        <v>15.507455999999998</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4:N13" si="11">M4*$C$20</f>
+        <v>51450.017218559995</v>
       </c>
       <c r="O4" s="9">
-        <f>L4/$C$24</f>
-        <v>258.45964799999996</v>
-      </c>
-      <c r="P4" s="22">
-        <f t="shared" ref="P4:P13" si="10">O4*$C$25</f>
-        <v>95278.564638719981</v>
+        <f t="shared" si="1"/>
+        <v>124.05964799999998</v>
+      </c>
+      <c r="P4" s="17">
+        <f t="shared" ref="P4:P13" si="12">O4*$C$25</f>
+        <v>45733.348638719988</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -823,59 +817,59 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="5"/>
+        <v>84.381696000000005</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="6"/>
+        <v>104.62003199999999</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="7"/>
+        <v>189.00172800000001</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="8"/>
+        <v>0.18900172800000001</v>
+      </c>
+      <c r="K5" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D5" s="5">
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="9"/>
+        <v>1575.0144000000003</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="10"/>
+        <v>15.750144000000002</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="11"/>
+        <v>52255.197757440008</v>
+      </c>
+      <c r="O5" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="3"/>
-        <v>170.78169599999998</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="4"/>
-        <v>450.220032</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="5"/>
-        <v>621.00172799999996</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="6"/>
-        <v>0.62100172799999998</v>
-      </c>
-      <c r="K5" s="9">
-        <f>$C$15/A5</f>
-        <v>8333.3333333333339</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="7"/>
-        <v>5175.0144</v>
-      </c>
-      <c r="M5" s="19">
-        <f t="shared" si="8"/>
-        <v>51.750143999999999</v>
-      </c>
-      <c r="N5" s="20">
-        <f t="shared" si="9"/>
-        <v>171694.55775743999</v>
-      </c>
-      <c r="O5" s="9">
-        <f>L5/$C$24</f>
-        <v>414.00115199999999</v>
-      </c>
-      <c r="P5" s="22">
-        <f t="shared" si="10"/>
-        <v>152617.38467328</v>
+        <v>126.00115200000002</v>
+      </c>
+      <c r="P5" s="17">
+        <f t="shared" si="12"/>
+        <v>46449.064673280009</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -886,59 +880,59 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="5"/>
+        <v>91.413504000000003</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="6"/>
+        <v>116.493312</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="7"/>
+        <v>207.90681599999999</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="8"/>
+        <v>0.20790681599999999</v>
+      </c>
+      <c r="K6" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D6" s="5">
+        <v>7692.3076923076924</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="9"/>
+        <v>1599.2832000000001</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="10"/>
+        <v>15.992832</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="11"/>
+        <v>53060.378296320006</v>
+      </c>
+      <c r="O6" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3.0640000000000001</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="3"/>
-        <v>231.81350399999999</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="4"/>
-        <v>724.89331200000015</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="5"/>
-        <v>956.70681600000012</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.95670681600000007</v>
-      </c>
-      <c r="K6" s="9">
-        <f>$C$15/A6</f>
-        <v>7692.3076923076924</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="7"/>
-        <v>7359.2832000000008</v>
-      </c>
-      <c r="M6" s="19">
-        <f t="shared" si="8"/>
-        <v>73.592832000000001</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="9"/>
-        <v>244163.35429632003</v>
-      </c>
-      <c r="O6" s="9">
-        <f>L6/$C$24</f>
-        <v>588.74265600000001</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" si="10"/>
-        <v>217034.09270784</v>
+        <v>127.942656</v>
+      </c>
+      <c r="P6" s="17">
+        <f t="shared" si="12"/>
+        <v>47164.78070784</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -949,59 +943,59 @@
         <v>1.2</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="5"/>
+        <v>98.445312000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="6"/>
+        <v>128.851968</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="7"/>
+        <v>227.29728</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="8"/>
+        <v>0.22729727999999999</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D7" s="5">
+        <v>7142.8571428571431</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="9"/>
+        <v>1623.5519999999999</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="10"/>
+        <v>16.235519999999998</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="11"/>
+        <v>53865.558835199998</v>
+      </c>
+      <c r="O7" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4.0640000000000001</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="3"/>
-        <v>300.04531199999997</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="4"/>
-        <v>1069.6519679999999</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="5"/>
-        <v>1369.6972799999999</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="6"/>
-        <v>1.3696972799999998</v>
-      </c>
-      <c r="K7" s="9">
-        <f>$C$15/A7</f>
-        <v>7142.8571428571431</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="7"/>
-        <v>9783.5519999999997</v>
-      </c>
-      <c r="M7" s="19">
-        <f t="shared" si="8"/>
-        <v>97.835520000000002</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="9"/>
-        <v>324594.77483520005</v>
-      </c>
-      <c r="O7" s="9">
-        <f>L7/$C$24</f>
-        <v>782.68416000000002</v>
-      </c>
-      <c r="P7" s="22">
-        <f t="shared" si="10"/>
-        <v>288528.68874239997</v>
+        <v>129.88415999999998</v>
+      </c>
+      <c r="P7" s="17">
+        <f t="shared" si="12"/>
+        <v>47880.496742399991</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1012,59 +1006,59 @@
         <v>1.2</v>
       </c>
       <c r="C8" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="5"/>
+        <v>105.47712</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="6"/>
+        <v>141.696</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="7"/>
+        <v>247.17311999999998</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.24717312</v>
+      </c>
+      <c r="K8" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D8" s="5">
+        <v>6666.666666666667</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="9"/>
+        <v>1647.8208</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="10"/>
+        <v>16.478207999999999</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="11"/>
+        <v>54670.739374079996</v>
+      </c>
+      <c r="O8" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5.0640000000000001</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="3"/>
-        <v>375.47711999999996</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="4"/>
-        <v>1491.6959999999997</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="5"/>
-        <v>1867.1731199999997</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="6"/>
-        <v>1.8671731199999997</v>
-      </c>
-      <c r="K8" s="9">
-        <f>$C$15/A8</f>
-        <v>6666.666666666667</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="7"/>
-        <v>12447.820799999998</v>
-      </c>
-      <c r="M8" s="19">
-        <f t="shared" si="8"/>
-        <v>124.47820799999998</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="9"/>
-        <v>412988.81937407999</v>
-      </c>
-      <c r="O8" s="9">
-        <f>L8/$C$24</f>
-        <v>995.82566399999985</v>
-      </c>
-      <c r="P8" s="22">
-        <f t="shared" si="10"/>
-        <v>367101.17277695995</v>
+        <v>131.82566399999999</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="12"/>
+        <v>48596.212776959997</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1075,59 +1069,59 @@
         <v>1.2</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="5"/>
+        <v>112.508928</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="6"/>
+        <v>155.025408</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="7"/>
+        <v>267.534336</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="8"/>
+        <v>0.26753433599999998</v>
+      </c>
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D9" s="5">
+        <v>6250</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="9"/>
+        <v>1672.0895999999998</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="10"/>
+        <v>16.720895999999996</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="11"/>
+        <v>55475.919912959995</v>
+      </c>
+      <c r="O9" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.0640000000000001</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>458.10892799999993</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="4"/>
-        <v>1998.2254079999998</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="5"/>
-        <v>2456.3343359999999</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="6"/>
-        <v>2.4563343359999998</v>
-      </c>
-      <c r="K9" s="9">
-        <f>$C$15/A9</f>
-        <v>6250</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="7"/>
-        <v>15352.089599999999</v>
-      </c>
-      <c r="M9" s="19">
-        <f t="shared" si="8"/>
-        <v>153.52089599999999</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="9"/>
-        <v>509345.48791296</v>
-      </c>
-      <c r="O9" s="9">
-        <f>L9/$C$24</f>
-        <v>1228.1671679999999</v>
-      </c>
-      <c r="P9" s="22">
-        <f t="shared" si="10"/>
-        <v>452751.54481151997</v>
+        <v>133.76716799999997</v>
+      </c>
+      <c r="P9" s="17">
+        <f t="shared" si="12"/>
+        <v>49311.928811519989</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1138,59 +1132,59 @@
         <v>1.2</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="5"/>
+        <v>119.540736</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>168.84019199999997</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="7"/>
+        <v>288.38092799999998</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="8"/>
+        <v>0.28838092799999998</v>
+      </c>
+      <c r="K10" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D10" s="5">
+        <v>5882.3529411764703</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="9"/>
+        <v>1696.3583999999998</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="10"/>
+        <v>16.963583999999997</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="11"/>
+        <v>56281.100451839993</v>
+      </c>
+      <c r="O10" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F10" s="4">
-        <v>7.0640000000000001</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="3"/>
-        <v>547.9407359999999</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="4"/>
-        <v>2596.4401919999996</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="5"/>
-        <v>3144.3809279999996</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="6"/>
-        <v>3.1443809279999995</v>
-      </c>
-      <c r="K10" s="9">
-        <f>$C$15/A10</f>
-        <v>5882.3529411764703</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="7"/>
-        <v>18496.358399999997</v>
-      </c>
-      <c r="M10" s="19">
-        <f t="shared" si="8"/>
-        <v>184.96358399999997</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="9"/>
-        <v>613664.78045183991</v>
-      </c>
-      <c r="O10" s="9">
-        <f>L10/$C$24</f>
-        <v>1479.7086719999998</v>
-      </c>
-      <c r="P10" s="22">
-        <f t="shared" si="10"/>
-        <v>545479.8048460799</v>
+        <v>135.70867199999998</v>
+      </c>
+      <c r="P10" s="17">
+        <f t="shared" si="12"/>
+        <v>50027.644846079987</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1201,59 +1195,59 @@
         <v>1.2</v>
       </c>
       <c r="C11" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="5"/>
+        <v>126.57254399999999</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>183.14035199999998</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="7"/>
+        <v>309.712896</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="8"/>
+        <v>0.30971289600000002</v>
+      </c>
+      <c r="K11" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D11" s="5">
+        <v>5555.5555555555557</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="9"/>
+        <v>1720.6272000000001</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="10"/>
+        <v>17.206272000000002</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="11"/>
+        <v>57086.280990720014</v>
+      </c>
+      <c r="O11" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8.0640000000000001</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>644.97254400000008</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="4"/>
-        <v>3293.5403519999995</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="5"/>
-        <v>3938.5128959999997</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="6"/>
-        <v>3.9385128959999998</v>
-      </c>
-      <c r="K11" s="9">
-        <f>$C$15/A11</f>
-        <v>5555.5555555555557</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="7"/>
-        <v>21880.627199999999</v>
-      </c>
-      <c r="M11" s="19">
-        <f t="shared" si="8"/>
-        <v>218.80627199999998</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="9"/>
-        <v>725946.69699072</v>
-      </c>
-      <c r="O11" s="9">
-        <f>L11/$C$24</f>
-        <v>1750.4501759999998</v>
-      </c>
-      <c r="P11" s="22">
-        <f t="shared" si="10"/>
-        <v>645285.95288063993</v>
+        <v>137.65017600000002</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="12"/>
+        <v>50743.360880640001</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1264,59 +1258,59 @@
         <v>1.2</v>
       </c>
       <c r="C12" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
+        <v>133.60435200000001</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>197.92588799999996</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="7"/>
+        <v>331.53023999999994</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="8"/>
+        <v>0.33153023999999992</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D12" s="5">
+        <v>5263.1578947368425</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="9"/>
+        <v>1744.8959999999997</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="10"/>
+        <v>17.448959999999996</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="11"/>
+        <v>57891.46152959999</v>
+      </c>
+      <c r="O12" s="9">
         <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F12" s="4">
-        <v>9.0640000000000001</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="3"/>
-        <v>749.20435200000009</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="4"/>
-        <v>4096.7258879999999</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="5"/>
-        <v>4845.9302399999997</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="6"/>
-        <v>4.8459302399999995</v>
-      </c>
-      <c r="K12" s="9">
-        <f>$C$15/A12</f>
-        <v>5263.1578947368425</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="7"/>
-        <v>25504.896000000001</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="8"/>
-        <v>255.04895999999999</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="9"/>
-        <v>846191.23752960004</v>
-      </c>
-      <c r="O12" s="9">
-        <f>L12/$C$24</f>
-        <v>2040.39168</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="10"/>
-        <v>752169.9889152</v>
+        <v>139.59167999999997</v>
+      </c>
+      <c r="P12" s="17">
+        <f t="shared" si="12"/>
+        <v>51459.076915199985</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1327,76 +1321,76 @@
         <v>1.2</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55296000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13824</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>140.63615999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>213.19680000000002</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="7"/>
+        <v>353.83296000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="8"/>
+        <v>0.35383296000000003</v>
+      </c>
+      <c r="K13" s="9">
         <f t="shared" si="0"/>
-        <v>4.9766399999999997</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.55296000000000001</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.13824</v>
-      </c>
-      <c r="F13" s="4">
-        <v>10.064</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="3"/>
-        <v>860.63616000000013</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="4"/>
-        <v>5013.1967999999997</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="5"/>
-        <v>5873.8329599999997</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="6"/>
-        <v>5.8738329599999997</v>
-      </c>
-      <c r="K13" s="9">
-        <f>$C$15/A13</f>
         <v>5000</v>
       </c>
       <c r="L13" s="2">
         <f>K13*J13</f>
-        <v>29369.164799999999</v>
-      </c>
-      <c r="M13" s="19">
-        <f t="shared" si="8"/>
-        <v>293.69164799999999</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" si="9"/>
-        <v>974398.40206848003</v>
+        <v>1769.1648000000002</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="10"/>
+        <v>17.691648000000001</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="11"/>
+        <v>58696.642068480003</v>
       </c>
       <c r="O13" s="9">
-        <f>L13/$C$24</f>
-        <v>2349.5331839999999</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="10"/>
-        <v>866131.91294975998</v>
+        <f t="shared" si="1"/>
+        <v>141.53318400000001</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="12"/>
+        <v>52174.792949759998</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="14">
+      <c r="B15" s="19"/>
+      <c r="C15" s="11">
         <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1404,7 +1398,7 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>72</v>
       </c>
     </row>
@@ -1412,7 +1406,7 @@
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>192</v>
       </c>
     </row>
@@ -1420,7 +1414,7 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>100</v>
       </c>
     </row>
@@ -1428,16 +1422,16 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>3317.76</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1445,7 +1439,7 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>8</v>
       </c>
     </row>
@@ -1453,7 +1447,7 @@
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>21</v>
       </c>
     </row>
@@ -1461,7 +1455,7 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>12.5</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1472,7 +1466,7 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="16">
         <v>368.64</v>
       </c>
     </row>

--- a/network_bandwidth_calucation.xlsx
+++ b/network_bandwidth_calucation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\jitsi upwork\jitsi-research-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFA3A28-5F0C-4915-AE9C-765C31EC53D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568C955B-95CE-499F-99E0-2F45DE1F1D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B25089BA-570A-49BA-BC95-088FF7E025CE}"/>
   </bookViews>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD2E4BC-BD86-46A4-97C7-9247BBF76A05}">
   <dimension ref="A2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
